--- a/medicine/Soins infirmiers et profession infirmière/Consultation_infirmière/Consultation_infirmière.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Consultation_infirmière/Consultation_infirmière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Consultation_infirmi%C3%A8re</t>
+          <t>Consultation_infirmière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La consultation infirmière est un dispositif de prise en soin global, ayant vocation à répondre à plusieurs données ou problèmes présentés par une personne, dans le cadre du vécu de sa maladie. Les objectifs de la consultation infirmière sont multiples et permettent à la personne et au professionnel infirmier d'organiser un suivi individualisé et étalé dans le temps devant un problème de santé et ses conséquences, d'y apporter des éléments de réponse et d'en évaluer l'atteinte. 
 La consultation infirmière est une pratique soignante récente en plein développement.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Consultation_infirmi%C3%A8re</t>
+          <t>Consultation_infirmière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Consultation_infirmi%C3%A8re</t>
+          <t>Consultation_infirmière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Définitions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les définitions principales concernent[à développer] :
 la consultation infirmière ;
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Consultation_infirmi%C3%A8re</t>
+          <t>Consultation_infirmière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Domaines d'exercice</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La consultation infirmière se trouve dans des postes de travail transversaux. Elle peut s'exercer dans différents secteurs :
 douleur : équipe mobile de la douleur
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Consultation_infirmi%C3%A8re</t>
+          <t>Consultation_infirmière</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dans les premiers temps de la prise en soins, la consultation infirmière permet d'apporter des explications aux différentes données médicales que la personne peut avoir du mal à appréhender et de l'aider à faire des liens entre sa maladie et son vécu. Par ailleurs, elle permet de répondre aux questions générales de la personne, de présenter l'organisation des soins en prévision d'un traitement au long-cours, les différents médicaments ou dispositifs médicaux ainsi que le rôle des différents intervenants (diététicien, soins de support,…). On parle aussi de consultation d'annonce.
 Au fil des rencontres, les consultations infirmières permettent :
